--- a/input-files/test.xlsx
+++ b/input-files/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\alpha-pilot-champs\input-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45AA9EA-19AB-428F-9455-8D9BA3D50469}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F0433-AE44-4ABF-9F4E-9A94C142C421}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{FCB52E39-A91F-4B9B-973B-180830F2E3C5}"/>
+    <workbookView xWindow="-22815" yWindow="4470" windowWidth="17280" windowHeight="8970" xr2:uid="{4B51AA22-0DDE-4B10-B06B-69B5974F53C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Num_Gates</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Nsteps</t>
+  </si>
+  <si>
+    <t>Substeps</t>
   </si>
   <si>
     <t>Ts</t>
@@ -402,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF1DCD-FC12-4DAA-80EF-5D046002794E}">
-  <dimension ref="A1:FE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA2393-C082-4261-B358-F51CDB548083}">
+  <dimension ref="A1:FE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:FE7"/>
+      <selection sqref="A1:FE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:161" x14ac:dyDescent="0.3">
@@ -451,364 +454,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-6.0404674953490769E-5</v>
-      </c>
-      <c r="F5">
-        <v>5.35173008507488E-6</v>
-      </c>
-      <c r="G5">
-        <v>-4.5245707169090342E-3</v>
-      </c>
-      <c r="H5">
-        <v>-3.0024141384787727E-4</v>
-      </c>
-      <c r="I5">
-        <v>3.7643760547484385E-5</v>
-      </c>
-      <c r="J5">
-        <v>-2.5838481964154964E-2</v>
-      </c>
-      <c r="K5">
-        <v>-5.4007629151860571E-4</v>
-      </c>
-      <c r="L5">
-        <v>6.9935632633501765E-5</v>
-      </c>
-      <c r="M5">
-        <v>-7.167739323417982E-2</v>
-      </c>
-      <c r="N5">
-        <v>-7.799090666181078E-4</v>
-      </c>
-      <c r="O5">
-        <v>1.0222737046292426E-4</v>
-      </c>
-      <c r="P5">
-        <v>-0.14204130454452771</v>
-      </c>
-      <c r="Q5">
-        <v>-1.0197397031462363E-3</v>
-      </c>
-      <c r="R5">
-        <v>1.3451886479545679E-4</v>
-      </c>
-      <c r="S5">
-        <v>-0.23693021590953597</v>
-      </c>
-      <c r="T5">
-        <v>-1.2595684710273163E-3</v>
-      </c>
-      <c r="U5">
-        <v>1.6680995520123812E-4</v>
-      </c>
-      <c r="V5">
-        <v>-0.35634412734943777</v>
-      </c>
-      <c r="W5">
-        <v>-1.4993954053172795E-3</v>
-      </c>
-      <c r="X5">
-        <v>1.9910059997685993E-4</v>
-      </c>
-      <c r="Y5">
-        <v>-0.50028303889756454</v>
-      </c>
-      <c r="Z5">
-        <v>-1.739220455390939E-3</v>
-      </c>
-      <c r="AA5">
-        <v>2.3139111232404382E-4</v>
-      </c>
-      <c r="AB5">
-        <v>-0.66874695059131484</v>
-      </c>
-      <c r="AC5">
-        <v>-1.9790441182071347E-3</v>
-      </c>
-      <c r="AD5">
-        <v>2.6368157269424244E-4</v>
-      </c>
-      <c r="AE5">
-        <v>-0.86173586246232381</v>
-      </c>
-      <c r="AF5">
-        <v>-2.2188661804387827E-3</v>
-      </c>
-      <c r="AG5">
-        <v>2.9597186555480932E-4</v>
-      </c>
-      <c r="AH5">
-        <v>-1.0792497745420406</v>
-      </c>
-      <c r="AI5">
-        <v>-2.4586861403790303E-3</v>
-      </c>
-      <c r="AJ5">
-        <v>3.2826147820692772E-4</v>
-      </c>
-      <c r="AK5">
-        <v>-1.3212886868545066</v>
-      </c>
-      <c r="AL5">
-        <v>-2.6985034136661483E-3</v>
-      </c>
-      <c r="AM5">
-        <v>3.605508387133091E-4</v>
-      </c>
-      <c r="AN5">
-        <v>-1.5878525994193566</v>
-      </c>
-      <c r="AO5">
-        <v>-2.9383186706813625E-3</v>
-      </c>
-      <c r="AP5">
-        <v>3.92839877845195E-4</v>
-      </c>
-      <c r="AQ5">
-        <v>-1.8789415122531496</v>
-      </c>
-      <c r="AR5">
-        <v>-3.1781322219368762E-3</v>
-      </c>
-      <c r="AS5">
-        <v>4.2512870673642051E-4</v>
-      </c>
-      <c r="AT5">
-        <v>-2.1945554253819646</v>
-      </c>
-      <c r="AU5">
-        <v>-3.4179438391702672E-3</v>
-      </c>
-      <c r="AV5">
-        <v>4.5741757687027827E-4</v>
-      </c>
-      <c r="AW5">
-        <v>-2.5346943388407492</v>
-      </c>
-      <c r="AX5">
-        <v>-3.6577540466708517E-3</v>
-      </c>
-      <c r="AY5">
-        <v>4.8970648142533831E-4</v>
-      </c>
-      <c r="AZ5">
-        <v>-2.8993582526635042</v>
-      </c>
-      <c r="BA5">
-        <v>-3.8975632887619043E-3</v>
-      </c>
-      <c r="BB5">
-        <v>5.2199551648123108E-4</v>
-      </c>
-      <c r="BC5">
-        <v>-3.288547166884479</v>
-      </c>
-      <c r="BD5">
-        <v>-4.1373705997236601E-3</v>
-      </c>
-      <c r="BE5">
-        <v>5.5428319551146816E-4</v>
-      </c>
-      <c r="BF5">
-        <v>-3.7022610815333219</v>
-      </c>
-      <c r="BG5">
-        <v>-4.377175023689877E-3</v>
-      </c>
-      <c r="BH5">
-        <v>5.8657038498542561E-4</v>
-      </c>
-      <c r="BI5">
-        <v>-4.1404999966288596</v>
-      </c>
-      <c r="BJ5">
-        <v>-4.6169767245752523E-3</v>
-      </c>
-      <c r="BK5">
-        <v>6.188572466191331E-4</v>
-      </c>
-      <c r="BL5">
-        <v>-4.6032639121842553</v>
-      </c>
-      <c r="BM5">
-        <v>-4.8567769272754623E-3</v>
-      </c>
-      <c r="BN5">
-        <v>6.511442024084782E-4</v>
-      </c>
-      <c r="BO5">
-        <v>-5.0905528282182786</v>
-      </c>
-      <c r="BP5">
-        <v>-5.0965753329352209E-3</v>
-      </c>
-      <c r="BQ5">
-        <v>6.8343125237025303E-4</v>
-      </c>
-      <c r="BR5">
-        <v>-5.6023667447669094</v>
-      </c>
-      <c r="BS5">
-        <v>-5.3363718156686155E-3</v>
-      </c>
-      <c r="BT5">
-        <v>7.1571845958167801E-4</v>
-      </c>
-      <c r="BU5">
-        <v>-6.1387056618714659</v>
-      </c>
-      <c r="BV5">
-        <v>-5.5761676955491746E-3</v>
-      </c>
-      <c r="BW5">
-        <v>7.4800590509834397E-4</v>
-      </c>
-      <c r="BX5">
-        <v>-6.6995695795690269</v>
-      </c>
-      <c r="BY5">
-        <v>-5.8159619395854803E-3</v>
-      </c>
-      <c r="BZ5">
-        <v>7.8029215261396338E-4</v>
-      </c>
-      <c r="CA5">
-        <v>-7.2849584978894439</v>
-      </c>
-      <c r="CB5">
-        <v>-6.0557537360124633E-3</v>
-      </c>
-      <c r="CC5">
-        <v>8.1257725829367734E-4</v>
-      </c>
-      <c r="CD5">
-        <v>-7.8948724168458257</v>
-      </c>
-      <c r="CE5">
-        <v>-6.2955421738948667E-3</v>
-      </c>
-      <c r="CF5">
-        <v>8.4486216511673077E-4</v>
-      </c>
-      <c r="CG5">
-        <v>-8.529311336447396</v>
-      </c>
-      <c r="CH5">
-        <v>-6.5353293596583711E-3</v>
-      </c>
-      <c r="CI5">
-        <v>8.7714732267670209E-4</v>
-      </c>
-      <c r="CJ5">
-        <v>-9.1882752567105896</v>
-      </c>
-      <c r="CK5">
-        <v>-6.7751150302370611E-3</v>
-      </c>
-      <c r="CL5">
-        <v>9.0943234230406286E-4</v>
-      </c>
-      <c r="CM5">
-        <v>-9.8717641776762406</v>
-      </c>
-      <c r="CN5">
-        <v>-7.0148983737977379E-3</v>
-      </c>
-      <c r="CO5">
-        <v>9.417174029601222E-4</v>
-      </c>
-      <c r="CP5">
-        <v>-10.579778099394655</v>
-      </c>
-      <c r="CQ5">
-        <v>-7.2546802098711824E-3</v>
-      </c>
-      <c r="CR5">
-        <v>9.7400244595983337E-4</v>
-      </c>
-      <c r="CS5">
-        <v>-11.312317021906139</v>
-      </c>
-      <c r="CT5">
-        <v>-7.4944607981051589E-3</v>
-      </c>
-      <c r="CU5">
-        <v>1.0062871131683783E-3</v>
-      </c>
-      <c r="CV5">
-        <v>-12.069380945232743</v>
-      </c>
-      <c r="CW5">
-        <v>-7.7342393461224635E-3</v>
-      </c>
-      <c r="CX5">
-        <v>1.0385703128038609E-3</v>
-      </c>
-      <c r="CY5">
-        <v>-12.850969869379499</v>
-      </c>
-      <c r="CZ5">
-        <v>-7.9740146257434238E-3</v>
-      </c>
-      <c r="DA5">
-        <v>1.0708534841966566E-3</v>
-      </c>
-      <c r="DB5">
-        <v>-13.657083794351408</v>
-      </c>
-      <c r="DC5">
-        <v>-8.213789004603237E-3</v>
-      </c>
-      <c r="DD5">
-        <v>1.1031369882158414E-3</v>
-      </c>
-      <c r="DE5">
-        <v>-14.487722720168847</v>
-      </c>
-      <c r="DF5">
-        <v>-8.4535623691563058E-3</v>
-      </c>
-      <c r="DG5">
-        <v>1.1354203459257861E-3</v>
-      </c>
-      <c r="DH5">
-        <v>-15.3428866468817</v>
-      </c>
-      <c r="DI5">
-        <v>-8.6933336065276416E-3</v>
-      </c>
-      <c r="DJ5">
-        <v>1.1677027048464003E-3</v>
-      </c>
-      <c r="DK5">
-        <v>-16.222575574548237</v>
-      </c>
-      <c r="DL5">
-        <v>-8.9331015280869688E-3</v>
-      </c>
-      <c r="DM5">
-        <v>1.1999848569181448E-3</v>
-      </c>
-      <c r="DN5">
-        <v>-17.126789503209512</v>
-      </c>
-      <c r="DO5">
-        <v>-9.1728679482438163E-3</v>
-      </c>
-      <c r="DP5">
-        <v>1.2322670077947705E-3</v>
-      </c>
-      <c r="DQ5">
-        <v>-18.055528432874617</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:161" x14ac:dyDescent="0.3">
@@ -816,484 +462,364 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.7931003117175353</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.6779382008345816E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-6.0404674953490769E-5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5.35173008507488E-6</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-4.5245707169090342E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-3.0024141384787727E-4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.7643760547484385E-5</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-2.5838481964154964E-2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-5.4007629151860571E-4</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.9935632633501765E-5</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-7.167739323417982E-2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-7.799090666181078E-4</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.0222737046292426E-4</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-0.14204130454452771</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1.0197397031462363E-3</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.3451886479545679E-4</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-0.23693021590953597</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-1.2595684710273163E-3</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.6680995520123812E-4</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-0.35634412734943777</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-1.4993954053172795E-3</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.9910059997685993E-4</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>-0.50028303889756454</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1.739220455390939E-3</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2.3139111232404382E-4</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-0.66874695059131484</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>-1.9790441182071347E-3</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.6368157269424244E-4</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-0.86173586246232381</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>-2.2188661804387827E-3</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.9597186555480932E-4</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>-1.0792497745420406</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>-2.4586861403790303E-3</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>3.2826147820692772E-4</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>-1.3212886868545066</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>-2.6985034136661483E-3</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>3.605508387133091E-4</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>-1.5878525994193566</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>-2.9383186706813625E-3</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>3.92839877845195E-4</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>-1.8789415122531496</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>-3.1781322219368762E-3</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>4.2512870673642051E-4</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>-2.1945554253819646</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>-3.4179438391702672E-3</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>4.5741757687027827E-4</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>-2.5346943388407492</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>-3.6577540466708517E-3</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>4.8970648142533831E-4</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>-2.8993582526635042</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>-3.8975632887619043E-3</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>5.2199551648123108E-4</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>-3.288547166884479</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>-4.1373705997236601E-3</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>5.5428319551146816E-4</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>-3.7022610815333219</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>-4.377175023689877E-3</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>5.8657038498542561E-4</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>-4.1404999966288596</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>-4.6169767245752523E-3</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>6.188572466191331E-4</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>-4.6032639121842553</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>-4.8567769272754623E-3</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>6.511442024084782E-4</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>-5.0905528282182786</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>-5.0965753329352209E-3</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>6.8343125237025303E-4</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>-5.6023667447669094</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>-5.3363718156686155E-3</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>7.1571845958167801E-4</v>
       </c>
       <c r="BU6">
-        <v>0</v>
+        <v>-6.1387056618714659</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>-5.5761676955491746E-3</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>7.4800590509834397E-4</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>-6.6995695795690269</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>-5.8159619395854803E-3</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>7.8029215261396338E-4</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>-7.2849584978894439</v>
       </c>
       <c r="CB6">
-        <v>0</v>
+        <v>-6.0557537360124633E-3</v>
       </c>
       <c r="CC6">
-        <v>0</v>
+        <v>8.1257725829367734E-4</v>
       </c>
       <c r="CD6">
-        <v>0</v>
+        <v>-7.8948724168458257</v>
       </c>
       <c r="CE6">
-        <v>0</v>
+        <v>-6.2955421738948667E-3</v>
       </c>
       <c r="CF6">
-        <v>0</v>
+        <v>8.4486216511673077E-4</v>
       </c>
       <c r="CG6">
-        <v>0</v>
+        <v>-8.529311336447396</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>-6.5353293596583711E-3</v>
       </c>
       <c r="CI6">
-        <v>0</v>
+        <v>8.7714732267670209E-4</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>-9.1882752567105896</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>-6.7751150302370611E-3</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>9.0943234230406286E-4</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>-9.8717641776762406</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>-7.0148983737977379E-3</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>9.417174029601222E-4</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>-10.579778099394655</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>-7.2546802098711824E-3</v>
       </c>
       <c r="CR6">
-        <v>0</v>
+        <v>9.7400244595983337E-4</v>
       </c>
       <c r="CS6">
-        <v>0</v>
+        <v>-11.312317021906139</v>
       </c>
       <c r="CT6">
-        <v>0</v>
+        <v>-7.4944607981051589E-3</v>
       </c>
       <c r="CU6">
-        <v>0</v>
+        <v>1.0062871131683783E-3</v>
       </c>
       <c r="CV6">
-        <v>0</v>
+        <v>-12.069380945232743</v>
       </c>
       <c r="CW6">
-        <v>0</v>
+        <v>-7.7342393461224635E-3</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>1.0385703128038609E-3</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>-12.850969869379499</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>-7.9740146257434238E-3</v>
       </c>
       <c r="DA6">
-        <v>0</v>
+        <v>1.0708534841966566E-3</v>
       </c>
       <c r="DB6">
-        <v>0</v>
+        <v>-13.657083794351408</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>-8.213789004603237E-3</v>
       </c>
       <c r="DD6">
-        <v>0</v>
+        <v>1.1031369882158414E-3</v>
       </c>
       <c r="DE6">
-        <v>0</v>
+        <v>-14.487722720168847</v>
       </c>
       <c r="DF6">
-        <v>0</v>
+        <v>-8.4535623691563058E-3</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>1.1354203459257861E-3</v>
       </c>
       <c r="DH6">
-        <v>0</v>
+        <v>-15.3428866468817</v>
       </c>
       <c r="DI6">
-        <v>0</v>
+        <v>-8.6933336065276416E-3</v>
       </c>
       <c r="DJ6">
-        <v>0</v>
+        <v>1.1677027048464003E-3</v>
       </c>
       <c r="DK6">
-        <v>0</v>
+        <v>-16.222575574548237</v>
       </c>
       <c r="DL6">
-        <v>0</v>
+        <v>-8.9331015280869688E-3</v>
       </c>
       <c r="DM6">
-        <v>0</v>
+        <v>1.1999848569181448E-3</v>
       </c>
       <c r="DN6">
-        <v>0</v>
+        <v>-17.126789503209512</v>
       </c>
       <c r="DO6">
-        <v>0</v>
+        <v>-9.1728679482438163E-3</v>
       </c>
       <c r="DP6">
-        <v>0</v>
+        <v>1.2322670077947705E-3</v>
       </c>
       <c r="DQ6">
-        <v>0</v>
-      </c>
-      <c r="DR6">
-        <v>0</v>
-      </c>
-      <c r="DS6">
-        <v>0</v>
-      </c>
-      <c r="DT6">
-        <v>0</v>
-      </c>
-      <c r="DU6">
-        <v>0</v>
-      </c>
-      <c r="DV6">
-        <v>0</v>
-      </c>
-      <c r="DW6">
-        <v>0</v>
-      </c>
-      <c r="DX6">
-        <v>0</v>
-      </c>
-      <c r="DY6">
-        <v>0</v>
-      </c>
-      <c r="DZ6">
-        <v>0</v>
-      </c>
-      <c r="EA6">
-        <v>0</v>
-      </c>
-      <c r="EB6">
-        <v>0</v>
-      </c>
-      <c r="EC6">
-        <v>0</v>
-      </c>
-      <c r="ED6">
-        <v>0</v>
-      </c>
-      <c r="EE6">
-        <v>0</v>
-      </c>
-      <c r="EF6">
-        <v>0</v>
-      </c>
-      <c r="EG6">
-        <v>0</v>
-      </c>
-      <c r="EH6">
-        <v>0</v>
-      </c>
-      <c r="EI6">
-        <v>0</v>
-      </c>
-      <c r="EJ6">
-        <v>0</v>
-      </c>
-      <c r="EK6">
-        <v>0</v>
-      </c>
-      <c r="EL6">
-        <v>0</v>
-      </c>
-      <c r="EM6">
-        <v>0</v>
-      </c>
-      <c r="EN6">
-        <v>0</v>
-      </c>
-      <c r="EO6">
-        <v>0</v>
-      </c>
-      <c r="EP6">
-        <v>0</v>
-      </c>
-      <c r="EQ6">
-        <v>0</v>
-      </c>
-      <c r="ER6">
-        <v>0</v>
-      </c>
-      <c r="ES6">
-        <v>0</v>
-      </c>
-      <c r="ET6">
-        <v>0</v>
-      </c>
-      <c r="EU6">
-        <v>0</v>
-      </c>
-      <c r="EV6">
-        <v>0</v>
-      </c>
-      <c r="EW6">
-        <v>0</v>
-      </c>
-      <c r="EX6">
-        <v>0</v>
-      </c>
-      <c r="EY6">
-        <v>0</v>
-      </c>
-      <c r="EZ6">
-        <v>0</v>
-      </c>
-      <c r="FA6">
-        <v>0</v>
-      </c>
-      <c r="FB6">
-        <v>0</v>
-      </c>
-      <c r="FC6">
-        <v>0</v>
-      </c>
-      <c r="FD6">
-        <v>0</v>
-      </c>
-      <c r="FE6">
-        <v>0</v>
+        <v>-18.055528432874617</v>
       </c>
     </row>
     <row r="7" spans="1:161" x14ac:dyDescent="0.3">
@@ -1301,22 +827,498 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6.7931003117175353</v>
+      </c>
+      <c r="C7">
+        <v>1.6779382008345816E-2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>0</v>
+      </c>
+      <c r="EN7">
+        <v>0</v>
+      </c>
+      <c r="EO7">
+        <v>0</v>
+      </c>
+      <c r="EP7">
+        <v>0</v>
+      </c>
+      <c r="EQ7">
+        <v>0</v>
+      </c>
+      <c r="ER7">
+        <v>0</v>
+      </c>
+      <c r="ES7">
+        <v>0</v>
+      </c>
+      <c r="ET7">
+        <v>0</v>
+      </c>
+      <c r="EU7">
+        <v>0</v>
+      </c>
+      <c r="EV7">
+        <v>0</v>
+      </c>
+      <c r="EW7">
+        <v>0</v>
+      </c>
+      <c r="EX7">
+        <v>0</v>
+      </c>
+      <c r="EY7">
+        <v>0</v>
+      </c>
+      <c r="EZ7">
+        <v>0</v>
+      </c>
+      <c r="FA7">
+        <v>0</v>
+      </c>
+      <c r="FB7">
+        <v>0</v>
+      </c>
+      <c r="FC7">
+        <v>0</v>
+      </c>
+      <c r="FD7">
+        <v>0</v>
+      </c>
+      <c r="FE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:161" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>0.5</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0.5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
